--- a/output/model_coefficients.xlsx
+++ b/output/model_coefficients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,20 +486,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2199894485458964</v>
+        <v>0.3096428421874487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04601121300075066</v>
+        <v>0.0287149378128813</v>
       </c>
       <c r="G2" t="n">
-        <v>4.781213843189184</v>
+        <v>10.78333667982948</v>
       </c>
       <c r="H2" t="n">
-        <v>1.742398939352796e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,20 +518,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.504462576240914</v>
+        <v>-0.03357280709910534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1518318949254779</v>
+        <v>0.02643089190467628</v>
       </c>
       <c r="G3" t="n">
-        <v>9.908738720342162</v>
+        <v>-1.270210903926979</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.204009514612276</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,16 +554,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.422955250712087</v>
+        <v>-0.1958267700932457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03409781389207763</v>
+        <v>0.02486415908861739</v>
       </c>
       <c r="G4" t="n">
-        <v>12.40417500190396</v>
+        <v>-7.875865392729799</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,20 +582,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.0881433767154854</v>
+        <v>0.2108718207264799</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02512897821821571</v>
+        <v>0.02748863692396166</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.507638708846652</v>
+        <v>7.671235983876418</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0004521025926083055</v>
+        <v>1.709743457922741e-14</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Negative_Outcomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,20 +614,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-0.2558355519946957</v>
+        <v>0.1048096038056194</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02685048310547812</v>
+        <v>0.02042459866803509</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.528154520727083</v>
+        <v>5.131537980450848</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.873842190886933e-07</v>
       </c>
     </row>
     <row r="7">
@@ -636,27 +636,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Negative_Outcomes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Wellbeing</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Participation</t>
-        </is>
-      </c>
       <c r="E7" t="n">
-        <v>0.2967351530281169</v>
+        <v>-0.2233471510629756</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02573559047054393</v>
+        <v>0.02295438650997959</v>
       </c>
       <c r="G7" t="n">
-        <v>11.53014745693205</v>
+        <v>-9.730042271273238</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Negative_Outcomes</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -678,20 +678,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.08205751677508114</v>
+        <v>0.1468258324720086</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01861459886025735</v>
+        <v>0.029816718919318</v>
       </c>
       <c r="G8" t="n">
-        <v>4.408234493082084</v>
+        <v>4.924278652670837</v>
       </c>
       <c r="H8" t="n">
-        <v>1.042166764553265e-05</v>
+        <v>8.467210970142247e-07</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Negative_Outcomes</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -710,20 +710,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.2813438696711688</v>
+        <v>-0.02486767235423644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02304636140203415</v>
+        <v>0.02814473713806013</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.20773486760165</v>
+        <v>-0.883563851791116</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.3769316997897503</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Positive_Outcomes</t>
+          <t>Bevl_1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -746,16 +746,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.186668602556742</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.02626608160720186</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.106830982298202</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.187272502534142e-12</v>
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -764,7 +770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Positive_Outcomes</t>
+          <t>Bevl_2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -774,20 +780,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.00118474009674633</v>
+        <v>1.141915097905106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01581923173947427</v>
+        <v>0.04690454711497399</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07489239150060083</v>
+        <v>24.34550951065918</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9403003302601971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +802,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bevl_1</t>
+          <t>Bevl_3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -810,22 +816,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.111077498796918</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.05058504392579351</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21.96454549698257</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -834,7 +834,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bevl_2</t>
+          <t>Cogn_Eng1_5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.157243160735265</v>
+        <v>1.080269919657953</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04383599262376218</v>
+        <v>0.05307644808405843</v>
       </c>
       <c r="G13" t="n">
-        <v>26.39938305130471</v>
+        <v>20.35309367210766</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bevl_3</t>
+          <t>Mot_Stress_1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.085001420474046</v>
+        <v>1.175963671477201</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04664415452430953</v>
+        <v>0.0492150593949598</v>
       </c>
       <c r="G14" t="n">
-        <v>23.26125173702773</v>
+        <v>23.89438691958055</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cogn_Eng1_5</t>
+          <t>Mot_Stress_4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.20968991222062</v>
+        <v>1.235073843452111</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04985680222728823</v>
+        <v>0.04808664518534533</v>
       </c>
       <c r="G15" t="n">
-        <v>24.26328721769192</v>
+        <v>25.68434205933797</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cogn_Eng1_6</t>
+          <t>Partici1_1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,20 +940,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.9645870537670196</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.04769780445381086</v>
-      </c>
-      <c r="G16" t="n">
-        <v>20.22288163558711</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -962,7 +968,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_2</t>
+          <t>Partici1_2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,17 +978,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7692112574229804</v>
+        <v>1.309761032925757</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05169994917268899</v>
+        <v>0.08065045173657724</v>
       </c>
       <c r="G17" t="n">
-        <v>14.87837550553039</v>
+        <v>16.23997144104654</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -994,7 +1000,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_3</t>
+          <t>Partici1_3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,17 +1010,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6452346983728653</v>
+        <v>0.9938274628425253</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04829107254064408</v>
+        <v>0.06153371714128556</v>
       </c>
       <c r="G18" t="n">
-        <v>13.36136607478418</v>
+        <v>16.15094145124501</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1026,7 +1032,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_8</t>
+          <t>StopInt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1036,20 +1042,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Negative_Outcomes</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7420169510649739</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.04598468602988964</v>
-      </c>
-      <c r="G19" t="n">
-        <v>16.13617521638689</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1058,7 +1070,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mot_Stress_1</t>
+          <t>Vertr</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1068,17 +1080,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Negative_Outcomes</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.164868012140809</v>
+        <v>2.168929766152872</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04589395415911714</v>
+        <v>0.2044488767180296</v>
       </c>
       <c r="G20" t="n">
-        <v>25.3817312859284</v>
+        <v>10.60866560364425</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1090,7 +1102,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mot_Stress_4</t>
+          <t>Cijfer_huidig_1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1100,20 +1112,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.231156257978414</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.04486270590109382</v>
-      </c>
-      <c r="G21" t="n">
-        <v>27.44275525121532</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1122,7 +1140,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bekendgebruik_4</t>
+          <t>StPunt_beh</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1132,26 +1150,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.260391956826585</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1808345944640296</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.969860830861782</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.172573315168847e-12</v>
       </c>
     </row>
     <row r="23">
@@ -1160,7 +1172,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bekendgebruik_5</t>
+          <t>Onnodige_stress_2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1170,20 +1182,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.123929264907393</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.08155595643476947</v>
-      </c>
-      <c r="G23" t="n">
-        <v>13.78108128487904</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1192,7 +1210,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bekendgebruik_6</t>
+          <t>Onnodige_stress_3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1202,17 +1220,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.256340935983986</v>
+        <v>0.8628411151197655</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1002478688768482</v>
+        <v>0.04857167716009685</v>
       </c>
       <c r="G24" t="n">
-        <v>12.53234557549383</v>
+        <v>17.76428498151289</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1224,7 +1242,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bekendgebruik_7</t>
+          <t>Onnodige_stress_4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1234,17 +1252,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.220115857382552</v>
+        <v>1.189796743535847</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08849917024694834</v>
+        <v>0.05331452742334662</v>
       </c>
       <c r="G25" t="n">
-        <v>13.78674911825897</v>
+        <v>22.3165580005219</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1256,7 +1274,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>StopInt</t>
+          <t>Onnodige_stress_5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1266,26 +1284,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Negative_Outcomes</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.163769184986944</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05200463673206599</v>
+      </c>
+      <c r="G26" t="n">
+        <v>22.37818121796411</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1294,7 +1306,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Vertr</t>
+          <t>Onnodige_stress_6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1304,17 +1316,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Negative_Outcomes</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.566850205092444</v>
+        <v>1.049420844987562</v>
       </c>
       <c r="F27" t="n">
-        <v>0.162187200749863</v>
+        <v>0.05017351244934951</v>
       </c>
       <c r="G27" t="n">
-        <v>9.660751266675446</v>
+        <v>20.9158337484553</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1326,7 +1338,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cijfer_huidig_1</t>
+          <t>Onnodige_stress_8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1336,26 +1348,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Positive_Outcomes</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.8679728233233113</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05018966593001527</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17.29385536290127</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1364,7 +1370,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Stopint2</t>
+          <t>Onnodige_stress_9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1374,20 +1380,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Positive_Outcomes</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.051617285820855</v>
+        <v>1.014172415155218</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3272712996468847</v>
+        <v>0.05175320670365566</v>
       </c>
       <c r="G29" t="n">
-        <v>6.268857941494461</v>
+        <v>19.59632030036092</v>
       </c>
       <c r="H29" t="n">
-        <v>3.637057321981274e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1396,7 +1402,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Onnodige_stress_1</t>
+          <t>Burn1_1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1406,7 +1412,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1434,7 +1440,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Onnodige_stress_2</t>
+          <t>Burn1_2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1444,17 +1450,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.156815438536315</v>
+        <v>1.056941536439401</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06176292436457367</v>
+        <v>0.06242996139864602</v>
       </c>
       <c r="G31" t="n">
-        <v>18.72993305318811</v>
+        <v>16.93003668019877</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1466,7 +1472,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Onnodige_stress_3</t>
+          <t>Depr_1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1476,17 +1482,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.087730029483937</v>
+        <v>1.366490570919968</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06051191144320092</v>
+        <v>0.06608187033260589</v>
       </c>
       <c r="G32" t="n">
-        <v>17.97546968065868</v>
+        <v>20.67875143396236</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1498,7 +1504,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Onnodige_stress_4</t>
+          <t>Depr_2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1508,17 +1514,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.401751059304967</v>
+        <v>1.471575514928218</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06841967420792183</v>
+        <v>0.07210849863644819</v>
       </c>
       <c r="G33" t="n">
-        <v>20.48754361245089</v>
+        <v>20.40779579016201</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1530,7 +1536,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Onnodige_stress_5</t>
+          <t>Depr_4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1540,17 +1546,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.373022605875289</v>
+        <v>1.090366882267386</v>
       </c>
       <c r="F34" t="n">
-        <v>0.06701477673473412</v>
+        <v>0.0579652064472396</v>
       </c>
       <c r="G34" t="n">
-        <v>20.48835604257345</v>
+        <v>18.81071334130477</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1562,7 +1568,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Onnodige_stress_6</t>
+          <t>Depr_6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1572,17 +1578,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.165603103797286</v>
+        <v>1.070264105150612</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06195118344846851</v>
+        <v>0.05943916701579084</v>
       </c>
       <c r="G35" t="n">
-        <v>18.81486420268354</v>
+        <v>18.00604145156131</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1594,7 +1600,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Onnodige_stress_7</t>
+          <t>Depr_7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1604,17 +1610,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.8961925352434679</v>
+        <v>1.014433466763669</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06393768100769515</v>
+        <v>0.05624832176791933</v>
       </c>
       <c r="G36" t="n">
-        <v>14.01665686188385</v>
+        <v>18.03491081798295</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1626,7 +1632,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Burn1_1</t>
+          <t>Depr_8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1640,22 +1646,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1.179979581237574</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.06641649487372694</v>
+      </c>
+      <c r="G37" t="n">
+        <v>17.76636336294502</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1664,27 +1664,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Burn1_2</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.068588874211012</v>
+        <v>-0.124347108078597</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05003625764087741</v>
+        <v>0.01178301211022365</v>
       </c>
       <c r="G38" t="n">
-        <v>21.35629090926787</v>
+        <v>-10.55308327826914</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Burn1_3</t>
+          <t>Response_to_Stress</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.9182373164098351</v>
+        <v>0.2829034697099975</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04993507660670806</v>
+        <v>0.02543436702050084</v>
       </c>
       <c r="G39" t="n">
-        <v>18.38862336436457</v>
+        <v>11.12288225890765</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1728,30 +1728,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Burn1_4</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.9610265923909733</v>
+        <v>0.08497142177446441</v>
       </c>
       <c r="F40" t="n">
-        <v>0.04896883758339386</v>
+        <v>0.020246405418741</v>
       </c>
       <c r="G40" t="n">
-        <v>19.62526863609374</v>
+        <v>4.196864579804084</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2.70635644450401e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1760,27 +1760,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Depr_1</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Stressors</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.265087150155882</v>
+        <v>0.564520512178974</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05152937243493513</v>
+        <v>0.04547489947434113</v>
       </c>
       <c r="G41" t="n">
-        <v>24.55079676603332</v>
+        <v>12.41389247017658</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1792,30 +1792,30 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Depr_2</t>
+          <t>Negative_Outcomes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.376986861501091</v>
+        <v>-0.03156892494213636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05601981211834604</v>
+        <v>0.004567243411075925</v>
       </c>
       <c r="G42" t="n">
-        <v>24.58035486744446</v>
+        <v>-6.912030319791409</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>4.777733764171899e-12</v>
       </c>
     </row>
     <row r="43">
@@ -1824,30 +1824,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Depr_3</t>
+          <t>Negative_Outcomes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Negative_Outcomes</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.9312082320339204</v>
+        <v>0.01931011428159611</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05577952694539715</v>
+        <v>0.005523572542171429</v>
       </c>
       <c r="G43" t="n">
-        <v>16.69444477234076</v>
+        <v>3.495946532913455</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.0004723833432631608</v>
       </c>
     </row>
     <row r="44">
@@ -1856,27 +1856,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Depr_4</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Energy_Sources</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.9614809299144914</v>
+        <v>0.5488866625078949</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0453881332961855</v>
+        <v>0.05117507831326143</v>
       </c>
       <c r="G44" t="n">
-        <v>-21.18353102602949</v>
+        <v>10.72566336170963</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1888,30 +1888,30 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Depr_5</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Positive_Outcomes</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.9489263794109194</v>
+        <v>0.1083816632254432</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04962004466428811</v>
+        <v>0.01789004484311922</v>
       </c>
       <c r="G45" t="n">
-        <v>19.12385177828638</v>
+        <v>6.058210818910843</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.376439184852529e-09</v>
       </c>
     </row>
     <row r="46">
@@ -1920,27 +1920,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Depr_6</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Wellbeing</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.9731382920212829</v>
+        <v>0.2712627419736807</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04654561047945444</v>
+        <v>0.02177776252147421</v>
       </c>
       <c r="G46" t="n">
-        <v>-20.90719795006074</v>
+        <v>12.45595095886196</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1952,27 +1952,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Depr_7</t>
+          <t>Bevl_1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Bevl_1</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.9760525103779811</v>
+        <v>0.4111899455033913</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04558802495425574</v>
+        <v>0.01772709083181417</v>
       </c>
       <c r="G47" t="n">
-        <v>21.41028288319067</v>
+        <v>23.19556826223555</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1984,27 +1984,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Depr_8</t>
+          <t>Bevl_2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Bevl_2</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.109477029912632</v>
+        <v>0.2278487412997966</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05263043972620454</v>
+        <v>0.01125186647420466</v>
       </c>
       <c r="G48" t="n">
-        <v>21.08051986005252</v>
+        <v>20.2498618164283</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2016,27 +2016,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mot_Stress_2</t>
+          <t>Bevl_3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Bevl_3</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.7418994206451616</v>
+        <v>0.3889868244383906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04033651999263237</v>
+        <v>0.01725747377224605</v>
       </c>
       <c r="G49" t="n">
-        <v>18.39274733572157</v>
+        <v>22.54019502213758</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2048,36 +2048,30 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Partici1_1</t>
+          <t>Burn1_1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Burn1_1</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.5744482286578757</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.02493333585758541</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23.0393651261098</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2086,27 +2080,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Partici1_2</t>
+          <t>Burn1_2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Burn1_2</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.192498988657075</v>
+        <v>0.7776426324739645</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05989045467763951</v>
+        <v>0.03317836920807588</v>
       </c>
       <c r="G51" t="n">
-        <v>19.91133637331344</v>
+        <v>23.43824157159725</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2118,30 +2112,30 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Partici1_3</t>
+          <t>Cijfer_huidig_1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Cijfer_huidig_1</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.064207457179968</v>
+        <v>0.1442050328153556</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05466203681484678</v>
+        <v>0.01747711024091624</v>
       </c>
       <c r="G52" t="n">
-        <v>19.46885844677214</v>
+        <v>8.251079887881083</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
     </row>
     <row r="53">
@@ -2150,27 +2144,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Partici1_4</t>
+          <t>Cogn_Eng1_5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Cogn_Eng1_5</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.8738586730486337</v>
+        <v>0.5111090843701391</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0514696389216929</v>
+        <v>0.02191123267828714</v>
       </c>
       <c r="G53" t="n">
-        <v>16.97813878898907</v>
+        <v>23.32635008952712</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2182,36 +2176,30 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Cogn_Eng1_1</t>
+          <t>Depr_1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Depr_1</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.4867919021906864</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.02400383226479202</v>
+      </c>
+      <c r="G54" t="n">
+        <v>20.2797576987078</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2220,27 +2208,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cogn_Eng1_2</t>
+          <t>Depr_2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Depr_2</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.171812052742574</v>
+        <v>0.6171928963086851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.12751058759092</v>
+        <v>0.02980199811839836</v>
       </c>
       <c r="G55" t="n">
-        <v>9.18991963626422</v>
+        <v>20.70978240572901</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2252,27 +2240,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Cogn_Eng1_4</t>
+          <t>Depr_4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Depr_4</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.053561892332769</v>
+        <v>0.5313849016302377</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1144734261373441</v>
+        <v>0.02373688294456912</v>
       </c>
       <c r="G56" t="n">
-        <v>9.203549923101901</v>
+        <v>22.38646509942998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2284,27 +2272,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_1</t>
+          <t>Depr_6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Depr_6</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.670871622927004</v>
+        <v>0.6234203468854674</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1549269959422294</v>
+        <v>0.02720869384152496</v>
       </c>
       <c r="G57" t="n">
-        <v>10.78489654275146</v>
+        <v>22.91254223718423</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2316,27 +2304,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_4</t>
+          <t>Depr_7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Depr_7</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.762727972051867</v>
+        <v>0.5562564067956558</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1703835143357541</v>
+        <v>0.02429494417743225</v>
       </c>
       <c r="G58" t="n">
-        <v>10.34564863222581</v>
+        <v>22.89597385819353</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2348,27 +2336,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_5</t>
+          <t>Depr_8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Depr_8</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.137279588154362</v>
+        <v>0.8016375396848845</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1942035597572331</v>
+        <v>0.03478649327708713</v>
       </c>
       <c r="G59" t="n">
-        <v>11.0053574240096</v>
+        <v>23.04450561534053</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2380,27 +2368,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_6</t>
+          <t>Mot_Stress_1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Mot_Stress_1</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1.294038401674199</v>
+        <v>0.2744256616865081</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1311854202069641</v>
+        <v>0.01314998362180027</v>
       </c>
       <c r="G60" t="n">
-        <v>9.864193746704474</v>
+        <v>20.86889760156748</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2412,27 +2400,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Cogn_Eng2_7</t>
+          <t>Mot_Stress_4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>~~</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Mot_Stress_4</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2.203533674332019</v>
+        <v>0.1660462167855497</v>
       </c>
       <c r="F61" t="n">
-        <v>0.197034585957573</v>
+        <v>0.009649167261881237</v>
       </c>
       <c r="G61" t="n">
-        <v>11.18348671433409</v>
+        <v>17.20834682017611</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2444,7 +2432,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Onnodige_stress_2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2454,17 +2442,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Onnodige_stress_2</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-0.1318360788347904</v>
+        <v>0.7412356275220362</v>
       </c>
       <c r="F62" t="n">
-        <v>0.01097477017120665</v>
+        <v>0.03349051030140342</v>
       </c>
       <c r="G62" t="n">
-        <v>-12.01265053993224</v>
+        <v>22.13270627497253</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2476,7 +2464,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Onnodige_stress_3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2486,17 +2474,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Response_to_Stress</t>
+          <t>Onnodige_stress_3</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.3175916740853906</v>
+        <v>0.867551805446738</v>
       </c>
       <c r="F63" t="n">
-        <v>0.02367666198810223</v>
+        <v>0.03723745909622696</v>
       </c>
       <c r="G63" t="n">
-        <v>13.41370140062691</v>
+        <v>23.29782499878849</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2508,7 +2496,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Onnodige_stress_4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2518,20 +2506,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>Onnodige_stress_4</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.09778283643531287</v>
+        <v>0.6081500412406367</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01515028506304674</v>
+        <v>0.03072347825016563</v>
       </c>
       <c r="G64" t="n">
-        <v>6.454191193231214</v>
+        <v>19.79430962435264</v>
       </c>
       <c r="H64" t="n">
-        <v>1.087983036995865e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2540,7 +2528,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Onnodige_stress_5</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2550,17 +2538,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Onnodige_stress_5</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.4306309586751917</v>
+        <v>0.5718678382053616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03962471551947788</v>
+        <v>0.0290317487590591</v>
       </c>
       <c r="G65" t="n">
-        <v>10.86773628576951</v>
+        <v>19.69801553918509</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2572,7 +2560,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Onnodige_stress_6</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2582,20 +2570,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Onnodige_stress_6</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-0.02754304025260926</v>
+        <v>0.6714998584567964</v>
       </c>
       <c r="F66" t="n">
-        <v>0.006607779337402976</v>
+        <v>0.03132291508153663</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.168274823061221</v>
+        <v>21.43797461658272</v>
       </c>
       <c r="H66" t="n">
-        <v>3.069137538802558e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2604,7 +2592,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Stressors</t>
+          <t>Onnodige_stress_8</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2614,20 +2602,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Onnodige_stress_8</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.006678645913768699</v>
+        <v>0.9601718833074332</v>
       </c>
       <c r="F67" t="n">
-        <v>0.01098399136650667</v>
+        <v>0.04090815724496388</v>
       </c>
       <c r="G67" t="n">
-        <v>0.6080345195395698</v>
+        <v>23.47140394357818</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5431645795103637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2636,7 +2624,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Onnodige_stress_9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2646,20 +2634,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Onnodige_stress_9</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.08188827607277155</v>
+        <v>0.8343238489095087</v>
       </c>
       <c r="F68" t="n">
-        <v>0.01350585537160718</v>
+        <v>0.03723056556254586</v>
       </c>
       <c r="G68" t="n">
-        <v>6.06316844165671</v>
+        <v>22.40964745715367</v>
       </c>
       <c r="H68" t="n">
-        <v>1.334657495632996e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2668,7 +2656,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Partici1_1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2678,20 +2666,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Partici1_1</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.2755681011734257</v>
+        <v>0.7326536250451641</v>
       </c>
       <c r="F69" t="n">
-        <v>0.03645919792421029</v>
+        <v>0.04160359630836379</v>
       </c>
       <c r="G69" t="n">
-        <v>7.558260105960251</v>
+        <v>17.61034357696295</v>
       </c>
       <c r="H69" t="n">
-        <v>4.085620730620576e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2700,7 +2688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Interventions</t>
+          <t>Partici1_2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2710,20 +2698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Behavior</t>
+          <t>Partici1_2</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.001376375027777232</v>
+        <v>0.6833517708044328</v>
       </c>
       <c r="F70" t="n">
-        <v>0.005178013875039134</v>
+        <v>0.05705372178684566</v>
       </c>
       <c r="G70" t="n">
-        <v>0.265811382651233</v>
+        <v>11.97733906554733</v>
       </c>
       <c r="H70" t="n">
-        <v>0.7903844764079127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2732,7 +2720,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Negative_Outcomes</t>
+          <t>Partici1_3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2742,20 +2730,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Negative_Outcomes</t>
+          <t>Partici1_3</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.02782126004822945</v>
+        <v>0.8659541212946321</v>
       </c>
       <c r="F71" t="n">
-        <v>0.007316110470795507</v>
+        <v>0.04541273318124299</v>
       </c>
       <c r="G71" t="n">
-        <v>3.802739195298345</v>
+        <v>19.06853123813372</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0001431049857627542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2764,7 +2752,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>StPunt_beh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2774,17 +2762,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Participation</t>
+          <t>StPunt_beh</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.3445731678591171</v>
+        <v>0.5188188738076686</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03102205677801686</v>
+        <v>0.03330399500461444</v>
       </c>
       <c r="G72" t="n">
-        <v>11.10736049236376</v>
+        <v>15.57827743248836</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2796,7 +2784,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Positive_Outcomes</t>
+          <t>StopInt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2806,20 +2794,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Positive_Outcomes</t>
+          <t>StopInt</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.056697282841445e-17</v>
+        <v>0.1339699788588707</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00473596924360489</v>
+        <v>0.007464627955808146</v>
       </c>
       <c r="G73" t="n">
-        <v>6.454216919426929e-15</v>
+        <v>17.94730824282847</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9999999999999949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2828,7 +2816,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Vertr</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2838,1619 +2826,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wellbeing</t>
+          <t>Vertr</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.2455324288803905</v>
+        <v>0.9466619878038234</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01838263095756074</v>
+        <v>0.04485697123621936</v>
       </c>
       <c r="G74" t="n">
-        <v>13.35676212147679</v>
+        <v>21.10401040671123</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_4</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_4</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>1.237180241494676</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.04849252417812847</v>
-      </c>
-      <c r="G75" t="n">
-        <v>25.51280351842702</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_5</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_5</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0.3559015202372467</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.02059501248242476</v>
-      </c>
-      <c r="G76" t="n">
-        <v>17.28095676191906</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_6</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_6</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1.074463012973196</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.04518707740971067</v>
-      </c>
-      <c r="G77" t="n">
-        <v>23.77810370888286</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_7</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Bekendgebruik_7</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0.261822699792117</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.02082870261385924</v>
-      </c>
-      <c r="G78" t="n">
-        <v>12.57028364336683</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Bevl_1</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Bevl_1</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0.4204613099027067</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.01652484609993008</v>
-      </c>
-      <c r="G79" t="n">
-        <v>25.44418915217864</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Bevl_2</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Bevl_2</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0.2433839185233395</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.01071591087690984</v>
-      </c>
-      <c r="G80" t="n">
-        <v>22.71238733657816</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Bevl_3</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Bevl_3</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0.4251552243549354</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.01693533807202713</v>
-      </c>
-      <c r="G81" t="n">
-        <v>25.10461985002112</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Burn1_1</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Burn1_1</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0.5272961760660533</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.02099605941275834</v>
-      </c>
-      <c r="G82" t="n">
-        <v>25.11405429347021</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Burn1_2</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Burn1_2</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0.7115157415193216</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.02792292183511636</v>
-      </c>
-      <c r="G83" t="n">
-        <v>25.48142152512942</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Burn1_3</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Burn1_3</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0.8709118781826746</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.03313699193725414</v>
-      </c>
-      <c r="G84" t="n">
-        <v>26.28216465168261</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Burn1_4</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Burn1_4</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0.7754271071219129</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.02982175042755363</v>
-      </c>
-      <c r="G85" t="n">
-        <v>26.00206547163173</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Cijfer_huidig_1</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Cijfer_huidig_1</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0.2361749051305678</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.009808139186464502</v>
-      </c>
-      <c r="G86" t="n">
-        <v>24.07948139973544</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_1</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_1</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0.5979145296047357</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.02273531448167222</v>
-      </c>
-      <c r="G87" t="n">
-        <v>26.29893376053531</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_2</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_2</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0.6702421267377229</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.02575039732583396</v>
-      </c>
-      <c r="G88" t="n">
-        <v>26.02841883295049</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_4</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_4</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0.538125156677361</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.0206825158329175</v>
-      </c>
-      <c r="G89" t="n">
-        <v>26.0183606771321</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_5</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_5</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0.4339125224759206</v>
-      </c>
-      <c r="F90" t="n">
-        <v>0.01765411993491289</v>
-      </c>
-      <c r="G90" t="n">
-        <v>24.57854166908848</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_6</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Cogn_Eng1_6</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0.5755155791317477</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.02204688559501515</v>
-      </c>
-      <c r="G91" t="n">
-        <v>26.10416680511867</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_1</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_1</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0.5018527209218181</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.02137430745777734</v>
-      </c>
-      <c r="G92" t="n">
-        <v>23.47925058576496</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_2</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_2</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0.8936848549561727</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.03318888671288692</v>
-      </c>
-      <c r="G93" t="n">
-        <v>26.92723207802678</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_3</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_3</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0.8229983752900187</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.03041216579048218</v>
-      </c>
-      <c r="G94" t="n">
-        <v>27.06148522709039</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_4</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_4</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>0.7815050736672958</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.03172328533958741</v>
-      </c>
-      <c r="G95" t="n">
-        <v>24.6350611318123</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_5</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_5</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>0.6677165617129042</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.02961572000018729</v>
-      </c>
-      <c r="G96" t="n">
-        <v>22.54601818514409</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_6</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_6</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>0.5698895881429676</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.02244825881220243</v>
-      </c>
-      <c r="G97" t="n">
-        <v>25.38680584918239</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_7</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_7</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>0.5805716277803784</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.02707854486775229</v>
-      </c>
-      <c r="G98" t="n">
-        <v>21.44028161758198</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_8</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Cogn_Eng2_8</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>0.6712682921294942</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.02505556076351741</v>
-      </c>
-      <c r="G99" t="n">
-        <v>26.79119012495282</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Depr_1</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Depr_1</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>0.5376456354834616</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.02263640235172985</v>
-      </c>
-      <c r="G100" t="n">
-        <v>23.75137299229989</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Depr_2</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Depr_2</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>0.6328649935192106</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.02667271067947414</v>
-      </c>
-      <c r="G101" t="n">
-        <v>23.72705950664782</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Depr_3</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Depr_3</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1.188441951993448</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.04470932478091715</v>
-      </c>
-      <c r="G102" t="n">
-        <v>26.5815231563085</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Depr_4</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Depr_4</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>0.5938378150474414</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.02324944824816946</v>
-      </c>
-      <c r="G103" t="n">
-        <v>25.54201754308966</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Depr_5</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Depr_5</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>0.8225565178404499</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.03148764541829339</v>
-      </c>
-      <c r="G104" t="n">
-        <v>26.12315106090612</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Depr_6</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Depr_6</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>0.6384430186349369</v>
-      </c>
-      <c r="F105" t="n">
-        <v>0.0249056557973483</v>
-      </c>
-      <c r="G105" t="n">
-        <v>25.63445924910266</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Depr_7</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Depr_7</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>0.5879759833160135</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.02309227714281913</v>
-      </c>
-      <c r="G106" t="n">
-        <v>25.46201830395886</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Depr_8</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Depr_8</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>0.805135937371694</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.03147877520682208</v>
-      </c>
-      <c r="G107" t="n">
-        <v>25.57710495583792</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Mot_Stress_1</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Mot_Stress_1</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>0.3161790147671613</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.0132990887668121</v>
-      </c>
-      <c r="G108" t="n">
-        <v>23.77448713120948</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Mot_Stress_2</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Mot_Stress_2</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>0.5681405348819893</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.02161764917226121</v>
-      </c>
-      <c r="G109" t="n">
-        <v>26.28132829469359</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Mot_Stress_4</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Mot_Stress_4</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>0.2033542264061601</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.009676722370386179</v>
-      </c>
-      <c r="G110" t="n">
-        <v>21.01478358079936</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_1</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_1</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>0.9800474699809925</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.03845532222190537</v>
-      </c>
-      <c r="G111" t="n">
-        <v>25.48535321847443</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_2</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_2</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>0.7533037270350497</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.03142422989621984</v>
-      </c>
-      <c r="G112" t="n">
-        <v>23.9720664435979</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_3</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_3</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>0.8294646286947763</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.03361537796903319</v>
-      </c>
-      <c r="G113" t="n">
-        <v>24.67515401535012</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_4</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_4</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>0.5721165502177837</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.0277438604214385</v>
-      </c>
-      <c r="G114" t="n">
-        <v>20.62137501798671</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_5</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_5</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>0.5486874375559918</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.0266112169364397</v>
-      </c>
-      <c r="G115" t="n">
-        <v>20.61865260975854</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_6</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_6</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>0.7449847239518911</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.03120106833666854</v>
-      </c>
-      <c r="G116" t="n">
-        <v>23.8768979282829</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_7</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Onnodige_stress_7</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>1.461417040278957</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.05532047776930366</v>
-      </c>
-      <c r="G117" t="n">
-        <v>26.41728884459227</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Partici1_1</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Partici1_1</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>0.7239751445035321</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.03398157278478538</v>
-      </c>
-      <c r="G118" t="n">
-        <v>21.30493338455404</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Partici1_2</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Partici1_2</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>0.8681572313016928</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0.04309829684774905</v>
-      </c>
-      <c r="G119" t="n">
-        <v>20.14365519705894</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Partici1_3</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Partici1_3</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>0.7943207147589113</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.03764213175979311</v>
-      </c>
-      <c r="G120" t="n">
-        <v>21.10190569988524</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Partici1_4</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Partici1_4</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>0.9686212227442768</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.04035233590626216</v>
-      </c>
-      <c r="G121" t="n">
-        <v>24.00409297172695</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>StopInt</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>StopInt</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>0.1145115058284042</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.008383855493073177</v>
-      </c>
-      <c r="G122" t="n">
-        <v>13.65857342237782</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Stopint2</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Stopint2</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>0.5967076913255798</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.02946457658712483</v>
-      </c>
-      <c r="G123" t="n">
-        <v>20.25169747615081</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Vertr</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>~~</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Vertr</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>1.040926077566475</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.04186091830811465</v>
-      </c>
-      <c r="G124" t="n">
-        <v>24.86629819919233</v>
-      </c>
-      <c r="H124" t="n">
         <v>0</v>
       </c>
     </row>
